--- a/PhoenixCI/Excel_Template/30201.xlsx
+++ b/PhoenixCI/Excel_Template/30201.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB9C9498-7F91-4346-BF62-DC5A7240CFD9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{921CD19E-1ED5-43C8-82BB-0AA03C8FF6A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="附件1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -562,10 +561,10 @@
     <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -574,7 +573,7 @@
     <xf numFmtId="178" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -589,7 +588,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -598,25 +597,25 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">

--- a/PhoenixCI/Excel_Template/30201.xlsx
+++ b/PhoenixCI/Excel_Template/30201.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{921CD19E-1ED5-43C8-82BB-0AA03C8FF6A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB9C9498-7F91-4346-BF62-DC5A7240CFD9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="附件1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -561,10 +562,10 @@
     <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -573,7 +574,7 @@
     <xf numFmtId="178" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -588,7 +589,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -597,25 +598,25 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">

--- a/PhoenixCI/Excel_Template/30201.xlsx
+++ b/PhoenixCI/Excel_Template/30201.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\開發\PhoenixCI\20190802\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB9C9498-7F91-4346-BF62-DC5A7240CFD9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="附件1" sheetId="1" r:id="rId1"/>
@@ -26,20 +25,12 @@
     <definedName name="部位限制數分級">#REF!</definedName>
     <definedName name="資料">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" fullCalcOnLoad="1" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <t>前六個月日均交易量與OI統計</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,6 +306,14 @@
   </si>
   <si>
     <t>美國那斯達克100期貨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富櫃200期貨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +326,7 @@
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;mm&quot;月&quot;"/>
     <numFmt numFmtId="178" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -403,6 +402,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -549,7 +555,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -562,10 +568,10 @@
     <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -574,7 +580,7 @@
     <xf numFmtId="178" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -589,7 +595,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -598,34 +604,37 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,7 +643,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -646,7 +655,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,23 +1141,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1184,23 +1176,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1378,13 +1353,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="10"/>
     <col min="2" max="2" width="20" style="10" customWidth="1"/>
@@ -1394,107 +1369,107 @@
     <col min="29" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="24.75" customHeight="1">
+    <row r="1" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="11" customFormat="1" ht="12" customHeight="1"/>
-    <row r="3" spans="1:28" s="11" customFormat="1" ht="16.7" customHeight="1">
-      <c r="A3" s="29" t="s">
+    <row r="2" spans="1:28" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:28" s="11" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="26" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="26" t="s">
+      <c r="H3" s="28"/>
+      <c r="I3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="26" t="s">
+      <c r="J3" s="28"/>
+      <c r="K3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26" t="s">
+      <c r="L3" s="28"/>
+      <c r="M3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="26" t="s">
+      <c r="N3" s="28"/>
+      <c r="O3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="26" t="s">
+      <c r="P3" s="28"/>
+      <c r="Q3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="27"/>
-      <c r="S3" s="26" t="s">
+      <c r="R3" s="28"/>
+      <c r="S3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="27"/>
-      <c r="U3" s="26" t="s">
+      <c r="T3" s="28"/>
+      <c r="U3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="27"/>
-      <c r="W3" s="26" t="s">
+      <c r="V3" s="28"/>
+      <c r="W3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="26" t="s">
+      <c r="X3" s="28"/>
+      <c r="Y3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="23" t="s">
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AB3" s="23" t="s">
+      <c r="AB3" s="24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-    </row>
-    <row r="5" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+    </row>
+    <row r="5" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1567,10 +1542,10 @@
       <c r="Z5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-    </row>
-    <row r="6" spans="1:28" s="12" customFormat="1">
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+    </row>
+    <row r="6" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1610,7 +1585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="12" customFormat="1">
+    <row r="7" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1650,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="12" customFormat="1">
+    <row r="8" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1682,15 +1657,15 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3">
-        <f t="shared" ref="AA8:AA34" si="0">MAX(C8:Z8)</f>
+        <f t="shared" ref="AA8:AA35" si="0">MAX(C8:Z8)</f>
         <v>0</v>
       </c>
       <c r="AB8" s="3">
-        <f t="shared" ref="AB8:AB34" si="1">MIN(MIN(MAX(C8:D8),MAX(E8:F8),MAX(I8:J8),MAX(K8:L8),MAX(M8:N8)),MAX(G8:H8))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" s="12" customFormat="1">
+        <f t="shared" ref="AB8:AB35" si="1">MIN(MIN(MAX(C8:D8),MAX(E8:F8),MAX(I8:J8),MAX(K8:L8),MAX(M8:N8)),MAX(G8:H8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1730,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="12" customFormat="1">
+    <row r="10" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1770,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="12" customFormat="1">
+    <row r="11" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1810,12 +1785,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="12" customFormat="1" hidden="1">
-      <c r="A12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>54</v>
+    <row r="12" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1842,20 +1817,20 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3">
-        <f>MAX(C12:Z12)</f>
+        <f t="shared" ref="AA12:AA19" si="2">MAX(C12:Z12)</f>
         <v>0</v>
       </c>
       <c r="AB12" s="3">
-        <f>MIN(MIN(MAX(C12:D12),MAX(E12:F12),MAX(I12:J12),MAX(K12:L12),MAX(M12:N12)),MAX(G12:H12))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" s="12" customFormat="1">
-      <c r="A13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>51</v>
+        <f t="shared" ref="AB12:AB19" si="3">MIN(MIN(MAX(C12:D12),MAX(E12:F12),MAX(I12:J12),MAX(K12:L12),MAX(M12:N12)),MAX(G12:H12))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="12" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1882,60 +1857,60 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3">
-        <f>MAX(C13:Z13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB13" s="3">
-        <f>MIN(MIN(MAX(C13:D13),MAX(E13:F13),MAX(I13:J13),MAX(K13:L13),MAX(M13:N13)),MAX(G13:H13))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" s="13" customFormat="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="13" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17">
-        <f>MAX(C14:Z14)</f>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="17">
-        <f>MIN(MIN(MAX(C14:D14),MAX(E14:F14),MAX(I14:J14),MAX(K14:L14),MAX(M14:N14)),MAX(G14:H14))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" s="13" customFormat="1">
-      <c r="A15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -1962,20 +1937,20 @@
       <c r="Y15" s="17"/>
       <c r="Z15" s="17"/>
       <c r="AA15" s="17">
-        <f>MAX(C15:Z15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB15" s="17">
-        <f>MIN(MIN(MAX(C15:D15),MAX(E15:F15),MAX(I15:J15),MAX(K15:L15),MAX(M15:N15)),MAX(G15:H15))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" s="13" customFormat="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -2002,20 +1977,20 @@
       <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
       <c r="AA16" s="17">
-        <f>MAX(C16:Z16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB16" s="17">
-        <f>MIN(MIN(MAX(C16:D16),MAX(E16:F16),MAX(I16:J16),MAX(K16:L16),MAX(M16:N16)),MAX(G16:H16))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" s="13" customFormat="1" hidden="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -2041,15 +2016,21 @@
       <c r="X17" s="17"/>
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-    </row>
-    <row r="18" spans="1:28" s="13" customFormat="1">
-      <c r="A18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>71</v>
+      <c r="AA17" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -2075,86 +2056,86 @@
       <c r="X18" s="17"/>
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
-      <c r="AA18" s="3">
-        <f>MAX(C18:Z18)</f>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="3">
-        <f>MIN(MIN(MAX(C18:D18),MAX(E18:F18),MAX(I18:J18),MAX(K18:L18),MAX(M18:N18)),MAX(G18:H18))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" s="12" customFormat="1">
+      <c r="AA18" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" s="12" customFormat="1">
-      <c r="A20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
       <c r="AA20" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2164,12 +2145,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="12" customFormat="1">
-      <c r="A21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>46</v>
+    <row r="21" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -2204,12 +2185,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="12" customFormat="1">
+    <row r="22" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -2244,37 +2225,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="13" customFormat="1">
-      <c r="A23" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
+    <row r="23" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
       <c r="AA23" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2284,12 +2265,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="13" customFormat="1">
+    <row r="24" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -2324,12 +2305,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" s="13" customFormat="1">
-      <c r="A25" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>70</v>
+    <row r="25" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -2364,132 +2345,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" s="13" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A26" s="22" t="s">
+    <row r="26" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" s="13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B27" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19">
-        <f>MAX(C26:Z26)</f>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="19">
-        <f>MIN(MIN(MAX(C26:D26),MAX(E26:F26),MAX(I26:J26),MAX(K26:L26),MAX(M26:N26)),MAX(G26:H26))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" s="13" customFormat="1" ht="17.25" thickTop="1">
-      <c r="A27" s="4" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19">
+        <f>MAX(C27:Z27)</f>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="19">
+        <f>MIN(MIN(MAX(C27:D27),MAX(E27:F27),MAX(I27:J27),MAX(K27:L27),MAX(M27:N27)),MAX(G27:H27))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" s="13" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5">
-        <f>MAX(C27:Z27)</f>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="7">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5">
+        <f>MAX(C28:Z28)</f>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" s="12" customFormat="1">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB28" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" s="12" customFormat="1">
-      <c r="A29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2524,12 +2505,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" s="12" customFormat="1">
+    <row r="30" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2564,12 +2545,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" s="12" customFormat="1">
+    <row r="31" spans="1:28" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2604,12 +2585,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="12" customFormat="1">
+    <row r="32" spans="1:28" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2636,20 +2617,20 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3">
-        <f>MAX(C32:Z32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB32" s="3">
-        <f>MIN(MIN(MAX(C32:D32),MAX(E32:F32),MAX(I32:J32),MAX(K32:L32),MAX(M32:N32)),MAX(G32:H32))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" s="12" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2684,12 +2665,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="12" customFormat="1">
+    <row r="34" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -2716,10 +2697,50 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3">
+        <f>MAX(C34:Z34)</f>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <f>MIN(MIN(MAX(C34:D34),MAX(E34:F34),MAX(I34:J34),MAX(K34:L34),MAX(M34:N34)),MAX(G34:H34))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB34" s="3">
+      <c r="AB35" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
